--- a/candybars.xlsx
+++ b/candybars.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Documents\MEGA\Red Deer Polytech\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{298ED467-7D8E-4CD4-9AC1-288174ED4898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D3DD3B-370C-46BB-888C-F93591109B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8A6423CB-DC31-47B3-8660-AAB34217BAD1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8A6423CB-DC31-47B3-8660-AAB34217BAD1}"/>
   </bookViews>
   <sheets>
     <sheet name="candybars" sheetId="1" r:id="rId1"/>
+    <sheet name="candybars-mini" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="40">
   <si>
     <t>name</t>
   </si>
@@ -137,6 +138,9 @@
   </si>
   <si>
     <t>Cookies and Cream</t>
+  </si>
+  <si>
+    <t>2 Musketeers</t>
   </si>
 </sst>
 </file>
@@ -999,7 +1003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533F4753-0A02-4E99-91D1-13ABF1C8454E}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -1929,4 +1933,346 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07C5DA8-0948-41D3-9C3C-E6C2609C45FA}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>184</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>39</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>45</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>58</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>43</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>54</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <v>54</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/candybars.xlsx
+++ b/candybars.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Documents\MEGA\Red Deer Polytech\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D3DD3B-370C-46BB-888C-F93591109B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C9549A-8D63-46E3-950B-B3860A2284B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8A6423CB-DC31-47B3-8660-AAB34217BAD1}"/>
   </bookViews>
   <sheets>
     <sheet name="candybars" sheetId="1" r:id="rId1"/>
-    <sheet name="candybars-mini" sheetId="2" r:id="rId2"/>
+    <sheet name="candybars_mini" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1940,7 +1940,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/candybars.xlsx
+++ b/candybars.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Documents\MEGA\Red Deer Polytech\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C9549A-8D63-46E3-950B-B3860A2284B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC326D6F-093F-4750-91DB-82AA9B4DCF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8A6423CB-DC31-47B3-8660-AAB34217BAD1}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="40">
   <si>
     <t>name</t>
   </si>
@@ -1937,10 +1937,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07C5DA8-0948-41D3-9C3C-E6C2609C45FA}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>54</v>
@@ -2233,41 +2233,6 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9">
-        <v>54</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9" t="s">
         <v>14</v>
       </c>
     </row>

--- a/candybars.xlsx
+++ b/candybars.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Documents\MEGA\Red Deer Polytech\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC326D6F-093F-4750-91DB-82AA9B4DCF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880A61D9-3F0C-4A99-B965-6D6ED3524F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8A6423CB-DC31-47B3-8660-AAB34217BAD1}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="39">
   <si>
     <t>name</t>
   </si>
@@ -138,9 +138,6 @@
   </si>
   <si>
     <t>Cookies and Cream</t>
-  </si>
-  <si>
-    <t>2 Musketeers</t>
   </si>
 </sst>
 </file>
@@ -1936,11 +1933,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07C5DA8-0948-41D3-9C3C-E6C2609C45FA}">
-  <dimension ref="A1:K8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9D75A0-8EF8-4263-A20C-C529DB528928}">
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2203,7 +2200,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>54</v>
@@ -2236,8 +2233,637 @@
         <v>14</v>
       </c>
     </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>48</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>45</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>60</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>52</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15">
+        <v>42</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>51</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17">
+        <v>52</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>48</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19">
+        <v>26</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <v>58</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21">
+        <v>43</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22">
+        <v>43</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23">
+        <v>45</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24">
+        <v>46</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25">
+        <v>51</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26">
+        <v>43</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/candybars.xlsx
+++ b/candybars.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Documents\MEGA\Red Deer Polytech\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880A61D9-3F0C-4A99-B965-6D6ED3524F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6790D809-A03A-43A3-8BD1-44C60CAB6E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8A6423CB-DC31-47B3-8660-AAB34217BAD1}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="39">
   <si>
     <t>name</t>
   </si>
@@ -1934,10 +1934,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9D75A0-8EF8-4263-A20C-C529DB528928}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2198,671 +2198,6 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8">
-        <v>54</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9">
-        <v>20</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10">
-        <v>48</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11">
-        <v>50</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12">
-        <v>45</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13">
-        <v>60</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14">
-        <v>52</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15">
-        <v>42</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16">
-        <v>51</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17">
-        <v>52</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18">
-        <v>48</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19">
-        <v>26</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20">
-        <v>58</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21">
-        <v>43</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22">
-        <v>43</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23">
-        <v>45</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24">
-        <v>46</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25">
-        <v>51</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26">
-        <v>43</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
